--- a/시장분석용_정보/시장분석용_3611052500.xlsx
+++ b/시장분석용_정보/시장분석용_3611052500.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -569,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV26"/>
+  <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,64 +621,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>6690</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D2">
         <v>202112</v>
@@ -738,10 +642,10 @@
         <v>7059401554</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I2">
         <v>3611052500</v>
@@ -750,7 +654,7 @@
         <v>92.03030303030303</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L2">
         <v>6285817</v>
@@ -762,117 +666,69 @@
         <v>38752</v>
       </c>
       <c r="O2">
-        <v>99.65000000000001</v>
+        <v>0.51</v>
       </c>
       <c r="P2">
-        <v>0.35</v>
+        <v>0.82</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>3.77</v>
       </c>
       <c r="R2">
-        <v>33.51</v>
+        <v>1.24</v>
       </c>
       <c r="S2">
-        <v>16.02</v>
+        <v>15.61</v>
       </c>
       <c r="T2">
-        <v>26.17</v>
+        <v>1.41</v>
       </c>
       <c r="U2">
-        <v>12.56</v>
+        <v>0.86</v>
       </c>
       <c r="V2">
-        <v>11.39</v>
+        <v>61.07</v>
       </c>
       <c r="W2">
-        <v>0.35</v>
+        <v>12.61</v>
       </c>
       <c r="X2">
-        <v>9.27</v>
+        <v>2.1</v>
       </c>
       <c r="Y2">
-        <v>72.34999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="Z2">
-        <v>6</v>
+        <v>5.17</v>
       </c>
       <c r="AA2">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>10.85</v>
+        <v>11.36</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>12.41</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>24.18</v>
       </c>
       <c r="AE2">
-        <v>0.51</v>
+        <v>46.39</v>
       </c>
       <c r="AF2">
-        <v>0.82</v>
-      </c>
-      <c r="AG2">
-        <v>3.77</v>
-      </c>
-      <c r="AH2">
-        <v>1.24</v>
-      </c>
-      <c r="AI2">
-        <v>15.61</v>
-      </c>
-      <c r="AJ2">
-        <v>1.41</v>
-      </c>
-      <c r="AK2">
-        <v>0.86</v>
-      </c>
-      <c r="AL2">
-        <v>61.07</v>
-      </c>
-      <c r="AM2">
-        <v>12.61</v>
-      </c>
-      <c r="AN2">
-        <v>2.1</v>
-      </c>
-      <c r="AO2">
-        <v>0.49</v>
-      </c>
-      <c r="AP2">
-        <v>5.17</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>11.36</v>
-      </c>
-      <c r="AS2">
-        <v>12.41</v>
-      </c>
-      <c r="AT2">
-        <v>24.18</v>
-      </c>
-      <c r="AU2">
-        <v>46.39</v>
-      </c>
-      <c r="AV2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>6691</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D3">
         <v>202112</v>
@@ -884,10 +740,10 @@
         <v>3933101185</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I3">
         <v>3611052500</v>
@@ -896,7 +752,7 @@
         <v>71.04848484848486</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <v>8183030</v>
@@ -908,117 +764,69 @@
         <v>42392</v>
       </c>
       <c r="O3">
-        <v>98.34999999999999</v>
+        <v>4.25</v>
       </c>
       <c r="P3">
-        <v>1.65</v>
+        <v>6.95</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>13.35</v>
       </c>
       <c r="R3">
-        <v>46.08</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>12.61</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>10.33</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>20.71</v>
+        <v>10.41</v>
       </c>
       <c r="V3">
-        <v>8.6</v>
+        <v>64.05</v>
       </c>
       <c r="W3">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>4.89</v>
+        <v>0.98</v>
       </c>
       <c r="Y3">
-        <v>18.1</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>69.45999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>3.27</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>4.28</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="AE3">
-        <v>4.25</v>
+        <v>58.93</v>
       </c>
       <c r="AF3">
-        <v>6.95</v>
-      </c>
-      <c r="AG3">
-        <v>13.35</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>10.41</v>
-      </c>
-      <c r="AL3">
-        <v>64.05</v>
-      </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0.98</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="AS3">
-        <v>3.44</v>
-      </c>
-      <c r="AT3">
-        <v>3.91</v>
-      </c>
-      <c r="AU3">
-        <v>58.93</v>
-      </c>
-      <c r="AV3">
         <v>25.19</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>6980</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D4">
         <v>202201</v>
@@ -1030,10 +838,10 @@
         <v>8899801262</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I4">
         <v>3611052500</v>
@@ -1042,7 +850,7 @@
         <v>86.16363636363636</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L4">
         <v>238864</v>
@@ -1054,117 +862,69 @@
         <v>5488</v>
       </c>
       <c r="O4">
-        <v>42.6</v>
+        <v>11.39</v>
       </c>
       <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>8.43</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>11.39</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>57.4</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>51.48</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
+      <c r="W4">
         <v>11.39</v>
       </c>
-      <c r="V4">
-        <v>8.43</v>
-      </c>
-      <c r="W4">
-        <v>28.7</v>
-      </c>
       <c r="X4">
-        <v>25.74</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>22.78</v>
+        <v>11.39</v>
       </c>
       <c r="Z4">
-        <v>40.09</v>
+        <v>0</v>
       </c>
       <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
         <v>11.39</v>
       </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
       <c r="AD4">
-        <v>0</v>
+        <v>43.05</v>
       </c>
       <c r="AE4">
-        <v>11.39</v>
+        <v>14.35</v>
       </c>
       <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>8.43</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>11.39</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>57.4</v>
-      </c>
-      <c r="AM4">
-        <v>11.39</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>11.39</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>11.39</v>
-      </c>
-      <c r="AT4">
-        <v>43.05</v>
-      </c>
-      <c r="AU4">
-        <v>14.35</v>
-      </c>
-      <c r="AV4">
         <v>19.82</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>6981</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D5">
         <v>202201</v>
@@ -1176,10 +936,10 @@
         <v>4859101585</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H5" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I5">
         <v>3611052500</v>
@@ -1188,7 +948,7 @@
         <v>44.54545454545455</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L5">
         <v>7108744</v>
@@ -1200,117 +960,69 @@
         <v>343825</v>
       </c>
       <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1.57</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
         <v>71.98</v>
       </c>
-      <c r="P5">
-        <v>28.02</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>39.26</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>32.72</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
-        <v>28.02</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.57</v>
+        <v>26.45</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>73.55</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
         <v>26.45</v>
       </c>
-      <c r="Z5">
-        <v>71.98</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>1.57</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>71.98</v>
-      </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>26.45</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>73.55</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>26.45</v>
-      </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>6982</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>202201</v>
@@ -1322,10 +1034,10 @@
         <v>7059401554</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I6">
         <v>3611052500</v>
@@ -1334,7 +1046,7 @@
         <v>92.03030303030303</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L6">
         <v>13527502</v>
@@ -1346,117 +1058,69 @@
         <v>30918</v>
       </c>
       <c r="O6">
-        <v>93.93000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>6.07</v>
+        <v>5.76</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>15.42</v>
       </c>
       <c r="R6">
-        <v>27.92</v>
+        <v>6.6</v>
       </c>
       <c r="S6">
-        <v>14.14</v>
+        <v>4.61</v>
       </c>
       <c r="T6">
-        <v>10.65</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>17.85</v>
+        <v>3.82</v>
       </c>
       <c r="V6">
-        <v>23.37</v>
+        <v>28.17</v>
       </c>
       <c r="W6">
-        <v>6.07</v>
+        <v>33.88</v>
       </c>
       <c r="X6">
-        <v>18.89</v>
+        <v>1.74</v>
       </c>
       <c r="Y6">
-        <v>47.2</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>31.45</v>
+        <v>2</v>
       </c>
       <c r="AA6">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.25</v>
+        <v>7.3</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>31.31</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>30.35</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>7.32</v>
       </c>
       <c r="AF6">
-        <v>5.76</v>
-      </c>
-      <c r="AG6">
-        <v>15.42</v>
-      </c>
-      <c r="AH6">
-        <v>6.6</v>
-      </c>
-      <c r="AI6">
-        <v>4.61</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>3.82</v>
-      </c>
-      <c r="AL6">
-        <v>28.17</v>
-      </c>
-      <c r="AM6">
-        <v>33.88</v>
-      </c>
-      <c r="AN6">
-        <v>1.74</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>2</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>7.3</v>
-      </c>
-      <c r="AS6">
-        <v>31.31</v>
-      </c>
-      <c r="AT6">
-        <v>30.35</v>
-      </c>
-      <c r="AU6">
-        <v>7.32</v>
-      </c>
-      <c r="AV6">
         <v>21.73</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>6983</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>202201</v>
@@ -1468,10 +1132,10 @@
         <v>3933101185</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I7">
         <v>3611052500</v>
@@ -1480,7 +1144,7 @@
         <v>71.04848484848486</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L7">
         <v>23878650</v>
@@ -1492,117 +1156,69 @@
         <v>62118</v>
       </c>
       <c r="O7">
-        <v>96.76000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>3.24</v>
+        <v>14.22</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>4.54</v>
       </c>
       <c r="R7">
-        <v>42.14</v>
+        <v>0.82</v>
       </c>
       <c r="S7">
-        <v>23.1</v>
+        <v>0.35</v>
       </c>
       <c r="T7">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>10.4</v>
+        <v>18.59</v>
       </c>
       <c r="V7">
-        <v>17.97</v>
+        <v>18.13</v>
       </c>
       <c r="W7">
-        <v>3.24</v>
+        <v>36</v>
       </c>
       <c r="X7">
-        <v>35.6</v>
+        <v>7.36</v>
       </c>
       <c r="Y7">
-        <v>15.26</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>45.69</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3.07</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.37</v>
+        <v>15.08</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>46.45</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>14.42</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>10.16</v>
       </c>
       <c r="AF7">
-        <v>14.22</v>
-      </c>
-      <c r="AG7">
-        <v>4.54</v>
-      </c>
-      <c r="AH7">
-        <v>0.82</v>
-      </c>
-      <c r="AI7">
-        <v>0.35</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>18.59</v>
-      </c>
-      <c r="AL7">
-        <v>18.13</v>
-      </c>
-      <c r="AM7">
-        <v>36</v>
-      </c>
-      <c r="AN7">
-        <v>7.36</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>15.08</v>
-      </c>
-      <c r="AS7">
-        <v>46.45</v>
-      </c>
-      <c r="AT7">
-        <v>14.42</v>
-      </c>
-      <c r="AU7">
-        <v>10.16</v>
-      </c>
-      <c r="AV7">
         <v>13.88</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>7276</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D8">
         <v>202202</v>
@@ -1614,10 +1230,10 @@
         <v>8899801262</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>3611052500</v>
@@ -1626,7 +1242,7 @@
         <v>86.16363636363636</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L8">
         <v>7941609</v>
@@ -1638,117 +1254,69 @@
         <v>28587</v>
       </c>
       <c r="O8">
-        <v>78.95</v>
+        <v>2.46</v>
       </c>
       <c r="P8">
-        <v>21.05</v>
+        <v>0.83</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>51.22</v>
       </c>
       <c r="R8">
-        <v>27.78</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>2.92</v>
+        <v>10.94</v>
       </c>
       <c r="T8">
-        <v>5.09</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>19.15</v>
+        <v>4.78</v>
       </c>
       <c r="V8">
-        <v>26.14</v>
+        <v>27.25</v>
       </c>
       <c r="W8">
-        <v>18.93</v>
+        <v>2.31</v>
       </c>
       <c r="X8">
-        <v>13.6</v>
+        <v>0.21</v>
       </c>
       <c r="Y8">
-        <v>77.03</v>
+        <v>0.42</v>
       </c>
       <c r="Z8">
-        <v>5.43</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>3.94</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>27.22</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>26.39</v>
       </c>
       <c r="AE8">
-        <v>2.46</v>
+        <v>41.39</v>
       </c>
       <c r="AF8">
-        <v>0.83</v>
-      </c>
-      <c r="AG8">
-        <v>51.22</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>10.94</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
-      </c>
-      <c r="AK8">
-        <v>4.78</v>
-      </c>
-      <c r="AL8">
-        <v>27.25</v>
-      </c>
-      <c r="AM8">
-        <v>2.31</v>
-      </c>
-      <c r="AN8">
-        <v>0.21</v>
-      </c>
-      <c r="AO8">
-        <v>0.42</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>2.9</v>
-      </c>
-      <c r="AS8">
-        <v>27.22</v>
-      </c>
-      <c r="AT8">
-        <v>26.39</v>
-      </c>
-      <c r="AU8">
-        <v>41.39</v>
-      </c>
-      <c r="AV8">
         <v>1.68</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>7277</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>202202</v>
@@ -1760,10 +1328,10 @@
         <v>4859101585</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I9">
         <v>3611052500</v>
@@ -1772,7 +1340,7 @@
         <v>44.54545454545455</v>
       </c>
       <c r="K9" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L9">
         <v>6393275</v>
@@ -1784,117 +1352,69 @@
         <v>48672</v>
       </c>
       <c r="O9">
-        <v>49.58</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>50.42</v>
+        <v>5.35</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>11.19</v>
       </c>
       <c r="R9">
-        <v>0.8100000000000001</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>4.22</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>40.65</v>
+        <v>1.88</v>
       </c>
       <c r="U9">
-        <v>2.05</v>
+        <v>56.03</v>
       </c>
       <c r="V9">
-        <v>3.74</v>
+        <v>23.02</v>
       </c>
       <c r="W9">
-        <v>48.54</v>
+        <v>1.61</v>
       </c>
       <c r="X9">
-        <v>4.86</v>
+        <v>0.91</v>
       </c>
       <c r="Y9">
-        <v>74.20999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>7.31</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>6.33</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>7.3</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>40.83</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>53.43</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>5.74</v>
       </c>
       <c r="AF9">
-        <v>5.35</v>
-      </c>
-      <c r="AG9">
-        <v>11.19</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>1.88</v>
-      </c>
-      <c r="AK9">
-        <v>56.03</v>
-      </c>
-      <c r="AL9">
-        <v>23.02</v>
-      </c>
-      <c r="AM9">
-        <v>1.61</v>
-      </c>
-      <c r="AN9">
-        <v>0.91</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>40.83</v>
-      </c>
-      <c r="AT9">
-        <v>53.43</v>
-      </c>
-      <c r="AU9">
-        <v>5.74</v>
-      </c>
-      <c r="AV9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>7278</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D10">
         <v>202202</v>
@@ -1906,10 +1426,10 @@
         <v>7059401554</v>
       </c>
       <c r="G10" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I10">
         <v>3611052500</v>
@@ -1918,7 +1438,7 @@
         <v>92.03030303030303</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L10">
         <v>12358917</v>
@@ -1930,117 +1450,69 @@
         <v>23625</v>
       </c>
       <c r="O10">
-        <v>73.65000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="P10">
-        <v>26.35</v>
+        <v>2.92</v>
       </c>
       <c r="Q10">
-        <v>11.52</v>
+        <v>8.619999999999999</v>
       </c>
       <c r="R10">
-        <v>33.12</v>
+        <v>26.56</v>
       </c>
       <c r="S10">
-        <v>3.46</v>
+        <v>1.71</v>
       </c>
       <c r="T10">
-        <v>9.869999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="U10">
-        <v>13.13</v>
+        <v>10.49</v>
       </c>
       <c r="V10">
-        <v>14.08</v>
+        <v>16.58</v>
       </c>
       <c r="W10">
-        <v>14.82</v>
+        <v>21.38</v>
       </c>
       <c r="X10">
-        <v>19.98</v>
+        <v>9.08</v>
       </c>
       <c r="Y10">
-        <v>62.64</v>
+        <v>1</v>
       </c>
       <c r="Z10">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>6.48</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.46</v>
+        <v>3.54</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>56.09</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="AE10">
-        <v>1.8</v>
+        <v>17.12</v>
       </c>
       <c r="AF10">
-        <v>2.92</v>
-      </c>
-      <c r="AG10">
-        <v>8.619999999999999</v>
-      </c>
-      <c r="AH10">
-        <v>26.56</v>
-      </c>
-      <c r="AI10">
-        <v>1.71</v>
-      </c>
-      <c r="AJ10">
-        <v>0.86</v>
-      </c>
-      <c r="AK10">
-        <v>10.49</v>
-      </c>
-      <c r="AL10">
-        <v>16.58</v>
-      </c>
-      <c r="AM10">
-        <v>21.38</v>
-      </c>
-      <c r="AN10">
-        <v>9.08</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>3.54</v>
-      </c>
-      <c r="AS10">
-        <v>56.09</v>
-      </c>
-      <c r="AT10">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="AU10">
-        <v>17.12</v>
-      </c>
-      <c r="AV10">
         <v>14.11</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>7279</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D11">
         <v>202202</v>
@@ -2052,10 +1524,10 @@
         <v>3933101185</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I11">
         <v>3611052500</v>
@@ -2064,7 +1536,7 @@
         <v>71.04848484848486</v>
       </c>
       <c r="K11" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L11">
         <v>29786746</v>
@@ -2076,117 +1548,69 @@
         <v>145568</v>
       </c>
       <c r="O11">
-        <v>99.81</v>
+        <v>0.6</v>
       </c>
       <c r="P11">
-        <v>0.19</v>
+        <v>0.46</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>45.44</v>
       </c>
       <c r="R11">
-        <v>6.08</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>28.77</v>
+        <v>23.35</v>
       </c>
       <c r="V11">
-        <v>62.07</v>
+        <v>26.99</v>
       </c>
       <c r="W11">
-        <v>0.19</v>
+        <v>2.16</v>
       </c>
       <c r="X11">
-        <v>41.35</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>6.07</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>25.45</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>26.47</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.67</v>
+        <v>1.06</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>58.63</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>14.46</v>
       </c>
       <c r="AE11">
-        <v>0.6</v>
+        <v>25.49</v>
       </c>
       <c r="AF11">
-        <v>0.46</v>
-      </c>
-      <c r="AG11">
-        <v>45.44</v>
-      </c>
-      <c r="AH11">
-        <v>1</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>23.35</v>
-      </c>
-      <c r="AL11">
-        <v>26.99</v>
-      </c>
-      <c r="AM11">
-        <v>2.16</v>
-      </c>
-      <c r="AN11">
-        <v>0</v>
-      </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>1.06</v>
-      </c>
-      <c r="AS11">
-        <v>58.63</v>
-      </c>
-      <c r="AT11">
-        <v>14.46</v>
-      </c>
-      <c r="AU11">
-        <v>25.49</v>
-      </c>
-      <c r="AV11">
         <v>0.35</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>7569</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D12">
         <v>202203</v>
@@ -2198,10 +1622,10 @@
         <v>5099006083</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I12">
         <v>3611052500</v>
@@ -2210,7 +1634,7 @@
         <v>60.71515151515153</v>
       </c>
       <c r="K12" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L12">
         <v>6880041</v>
@@ -2222,117 +1646,69 @@
         <v>7163</v>
       </c>
       <c r="O12">
-        <v>90.86</v>
+        <v>4.29</v>
       </c>
       <c r="P12">
-        <v>9.140000000000001</v>
+        <v>12.4</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>17.86</v>
       </c>
       <c r="R12">
-        <v>22.19</v>
+        <v>5.08</v>
       </c>
       <c r="S12">
-        <v>16.95</v>
+        <v>5.05</v>
       </c>
       <c r="T12">
-        <v>22.42</v>
+        <v>0.76</v>
       </c>
       <c r="U12">
-        <v>15.2</v>
+        <v>17.9</v>
       </c>
       <c r="V12">
-        <v>14.1</v>
+        <v>31.22</v>
       </c>
       <c r="W12">
-        <v>9.140000000000001</v>
+        <v>4.64</v>
       </c>
       <c r="X12">
-        <v>20.99</v>
+        <v>0.8</v>
       </c>
       <c r="Y12">
-        <v>42.07</v>
+        <v>1.14</v>
       </c>
       <c r="Z12">
-        <v>23.76</v>
+        <v>0.82</v>
       </c>
       <c r="AA12">
-        <v>13.18</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>6.31</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>25.47</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>27.63</v>
       </c>
       <c r="AE12">
-        <v>4.29</v>
+        <v>27.32</v>
       </c>
       <c r="AF12">
-        <v>12.4</v>
-      </c>
-      <c r="AG12">
-        <v>17.86</v>
-      </c>
-      <c r="AH12">
-        <v>5.08</v>
-      </c>
-      <c r="AI12">
-        <v>5.05</v>
-      </c>
-      <c r="AJ12">
-        <v>0.76</v>
-      </c>
-      <c r="AK12">
-        <v>17.9</v>
-      </c>
-      <c r="AL12">
-        <v>31.22</v>
-      </c>
-      <c r="AM12">
-        <v>4.64</v>
-      </c>
-      <c r="AN12">
-        <v>0.8</v>
-      </c>
-      <c r="AO12">
-        <v>1.14</v>
-      </c>
-      <c r="AP12">
-        <v>0.82</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>6.31</v>
-      </c>
-      <c r="AS12">
-        <v>25.47</v>
-      </c>
-      <c r="AT12">
-        <v>27.63</v>
-      </c>
-      <c r="AU12">
-        <v>27.32</v>
-      </c>
-      <c r="AV12">
         <v>11.31</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>7570</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D13">
         <v>202203</v>
@@ -2344,10 +1720,10 @@
         <v>8899801262</v>
       </c>
       <c r="G13" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I13">
         <v>3611052500</v>
@@ -2356,7 +1732,7 @@
         <v>86.16363636363636</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L13">
         <v>12704748</v>
@@ -2368,117 +1744,69 @@
         <v>23461</v>
       </c>
       <c r="O13">
-        <v>93</v>
+        <v>1.96</v>
       </c>
       <c r="P13">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="R13">
-        <v>57.14</v>
+        <v>0.43</v>
       </c>
       <c r="S13">
-        <v>6.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="T13">
-        <v>6.4</v>
+        <v>0.93</v>
       </c>
       <c r="U13">
-        <v>13.86</v>
+        <v>48.15</v>
       </c>
       <c r="V13">
-        <v>8.93</v>
+        <v>22.92</v>
       </c>
       <c r="W13">
-        <v>6.73</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="X13">
-        <v>25.06</v>
+        <v>0.28</v>
       </c>
       <c r="Y13">
-        <v>62.91</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>9.48</v>
+        <v>0.43</v>
       </c>
       <c r="AA13">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>3.46</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>11.06</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>20.65</v>
       </c>
       <c r="AE13">
-        <v>1.96</v>
+        <v>13.88</v>
       </c>
       <c r="AF13">
-        <v>6.7</v>
-      </c>
-      <c r="AG13">
-        <v>8.75</v>
-      </c>
-      <c r="AH13">
-        <v>0.43</v>
-      </c>
-      <c r="AI13">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AJ13">
-        <v>0.93</v>
-      </c>
-      <c r="AK13">
-        <v>48.15</v>
-      </c>
-      <c r="AL13">
-        <v>22.92</v>
-      </c>
-      <c r="AM13">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="AN13">
-        <v>0.28</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0.43</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>3.46</v>
-      </c>
-      <c r="AS13">
-        <v>11.06</v>
-      </c>
-      <c r="AT13">
-        <v>20.65</v>
-      </c>
-      <c r="AU13">
-        <v>13.88</v>
-      </c>
-      <c r="AV13">
         <v>50.52</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>7571</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D14">
         <v>202203</v>
@@ -2490,10 +1818,10 @@
         <v>4859101585</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H14" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I14">
         <v>3611052500</v>
@@ -2502,7 +1830,7 @@
         <v>44.54545454545455</v>
       </c>
       <c r="K14" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L14">
         <v>10485711</v>
@@ -2514,117 +1842,69 @@
         <v>142107</v>
       </c>
       <c r="O14">
-        <v>62.5</v>
+        <v>0</v>
       </c>
       <c r="P14">
+        <v>0.72</v>
+      </c>
+      <c r="Q14">
+        <v>15.15</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>20.58</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>25.02</v>
+      </c>
+      <c r="V14">
         <v>37.5</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>36.28</v>
-      </c>
-      <c r="S14">
-        <v>21.08</v>
-      </c>
-      <c r="T14">
-        <v>5.87</v>
-      </c>
-      <c r="U14">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>1.03</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
         <v>0.36</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>36.41</v>
-      </c>
-      <c r="X14">
-        <v>35.33</v>
-      </c>
-      <c r="Y14">
-        <v>21.01</v>
-      </c>
-      <c r="Z14">
-        <v>42.39</v>
-      </c>
-      <c r="AA14">
+      <c r="AC14">
+        <v>57.29</v>
+      </c>
+      <c r="AD14">
         <v>1.28</v>
       </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
       <c r="AE14">
-        <v>0</v>
+        <v>39.98</v>
       </c>
       <c r="AF14">
-        <v>0.72</v>
-      </c>
-      <c r="AG14">
-        <v>15.15</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>20.58</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>25.02</v>
-      </c>
-      <c r="AL14">
-        <v>37.5</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>1.03</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0.36</v>
-      </c>
-      <c r="AS14">
-        <v>57.29</v>
-      </c>
-      <c r="AT14">
-        <v>1.28</v>
-      </c>
-      <c r="AU14">
-        <v>39.98</v>
-      </c>
-      <c r="AV14">
         <v>1.09</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>7572</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>202203</v>
@@ -2636,10 +1916,10 @@
         <v>7059401554</v>
       </c>
       <c r="G15" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H15" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I15">
         <v>3611052500</v>
@@ -2648,7 +1928,7 @@
         <v>92.03030303030303</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L15">
         <v>9704610</v>
@@ -2660,117 +1940,69 @@
         <v>15363</v>
       </c>
       <c r="O15">
-        <v>92.55</v>
+        <v>2.99</v>
       </c>
       <c r="P15">
-        <v>7.45</v>
+        <v>11.76</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>15.25</v>
       </c>
       <c r="R15">
-        <v>23.8</v>
+        <v>5.56</v>
       </c>
       <c r="S15">
-        <v>14.47</v>
+        <v>3.31</v>
       </c>
       <c r="T15">
-        <v>21.39</v>
+        <v>5.74</v>
       </c>
       <c r="U15">
-        <v>15.77</v>
+        <v>19.99</v>
       </c>
       <c r="V15">
-        <v>17.11</v>
+        <v>25.41</v>
       </c>
       <c r="W15">
-        <v>7.45</v>
+        <v>3.56</v>
       </c>
       <c r="X15">
-        <v>26.95</v>
+        <v>6.45</v>
       </c>
       <c r="Y15">
-        <v>41.78</v>
+        <v>1.87</v>
       </c>
       <c r="Z15">
-        <v>16.68</v>
+        <v>2.36</v>
       </c>
       <c r="AA15">
-        <v>13.26</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>1.33</v>
+        <v>8.15</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>41.42</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>28.54</v>
       </c>
       <c r="AE15">
-        <v>2.99</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AF15">
-        <v>11.76</v>
-      </c>
-      <c r="AG15">
-        <v>15.25</v>
-      </c>
-      <c r="AH15">
-        <v>5.56</v>
-      </c>
-      <c r="AI15">
-        <v>3.31</v>
-      </c>
-      <c r="AJ15">
-        <v>5.74</v>
-      </c>
-      <c r="AK15">
-        <v>19.99</v>
-      </c>
-      <c r="AL15">
-        <v>25.41</v>
-      </c>
-      <c r="AM15">
-        <v>3.56</v>
-      </c>
-      <c r="AN15">
-        <v>6.45</v>
-      </c>
-      <c r="AO15">
-        <v>1.87</v>
-      </c>
-      <c r="AP15">
-        <v>2.36</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>8.15</v>
-      </c>
-      <c r="AS15">
-        <v>41.42</v>
-      </c>
-      <c r="AT15">
-        <v>28.54</v>
-      </c>
-      <c r="AU15">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AV15">
         <v>8.949999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>7573</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D16">
         <v>202203</v>
@@ -2782,10 +2014,10 @@
         <v>3933101185</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I16">
         <v>3611052500</v>
@@ -2794,7 +2026,7 @@
         <v>71.04848484848486</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L16">
         <v>19112641</v>
@@ -2806,117 +2038,69 @@
         <v>74570</v>
       </c>
       <c r="O16">
-        <v>68.73</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>31.27</v>
+        <v>1.06</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>35.32</v>
       </c>
       <c r="R16">
-        <v>12.98</v>
+        <v>0.27</v>
       </c>
       <c r="S16">
-        <v>4.3</v>
+        <v>1.59</v>
       </c>
       <c r="T16">
-        <v>5.88</v>
+        <v>1.35</v>
       </c>
       <c r="U16">
-        <v>10.52</v>
+        <v>42.23</v>
       </c>
       <c r="V16">
-        <v>35.05</v>
+        <v>15.75</v>
       </c>
       <c r="W16">
-        <v>31.27</v>
+        <v>1.87</v>
       </c>
       <c r="X16">
-        <v>2.86</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Y16">
-        <v>36.07</v>
+        <v>0.17</v>
       </c>
       <c r="Z16">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>18.08</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>7.09</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>42.89</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>33.18</v>
       </c>
       <c r="AF16">
-        <v>1.06</v>
-      </c>
-      <c r="AG16">
-        <v>35.32</v>
-      </c>
-      <c r="AH16">
-        <v>0.27</v>
-      </c>
-      <c r="AI16">
-        <v>1.59</v>
-      </c>
-      <c r="AJ16">
-        <v>1.35</v>
-      </c>
-      <c r="AK16">
-        <v>42.23</v>
-      </c>
-      <c r="AL16">
-        <v>15.75</v>
-      </c>
-      <c r="AM16">
-        <v>1.87</v>
-      </c>
-      <c r="AN16">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AO16">
-        <v>0.17</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>7.09</v>
-      </c>
-      <c r="AS16">
-        <v>42.89</v>
-      </c>
-      <c r="AT16">
-        <v>8.029999999999999</v>
-      </c>
-      <c r="AU16">
-        <v>33.18</v>
-      </c>
-      <c r="AV16">
         <v>8.640000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>7868</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D17">
         <v>202204</v>
@@ -2928,10 +2112,10 @@
         <v>5099006083</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I17">
         <v>3611052500</v>
@@ -2940,7 +2124,7 @@
         <v>60.71515151515153</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L17">
         <v>5794081</v>
@@ -2952,117 +2136,69 @@
         <v>7523</v>
       </c>
       <c r="O17">
-        <v>82.29000000000001</v>
+        <v>3.86</v>
       </c>
       <c r="P17">
-        <v>17.71</v>
+        <v>21.91</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>9.19</v>
       </c>
       <c r="R17">
-        <v>13.49</v>
+        <v>1.17</v>
       </c>
       <c r="S17">
-        <v>15.13</v>
+        <v>0.89</v>
       </c>
       <c r="T17">
-        <v>16.42</v>
+        <v>5.81</v>
       </c>
       <c r="U17">
-        <v>15.97</v>
+        <v>10.43</v>
       </c>
       <c r="V17">
-        <v>21.28</v>
+        <v>36.35</v>
       </c>
       <c r="W17">
-        <v>17.71</v>
+        <v>6.63</v>
       </c>
       <c r="X17">
-        <v>25.12</v>
+        <v>3.75</v>
       </c>
       <c r="Y17">
-        <v>24.65</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>18.14</v>
+        <v>1.74</v>
       </c>
       <c r="AA17">
-        <v>32.08</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>13.48</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>34.52</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>17.08</v>
       </c>
       <c r="AE17">
-        <v>3.86</v>
+        <v>17.18</v>
       </c>
       <c r="AF17">
-        <v>21.91</v>
-      </c>
-      <c r="AG17">
-        <v>9.19</v>
-      </c>
-      <c r="AH17">
-        <v>1.17</v>
-      </c>
-      <c r="AI17">
-        <v>0.89</v>
-      </c>
-      <c r="AJ17">
-        <v>5.81</v>
-      </c>
-      <c r="AK17">
-        <v>10.43</v>
-      </c>
-      <c r="AL17">
-        <v>36.35</v>
-      </c>
-      <c r="AM17">
-        <v>6.63</v>
-      </c>
-      <c r="AN17">
-        <v>3.75</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1.74</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>13.48</v>
-      </c>
-      <c r="AS17">
-        <v>34.52</v>
-      </c>
-      <c r="AT17">
-        <v>17.08</v>
-      </c>
-      <c r="AU17">
-        <v>17.18</v>
-      </c>
-      <c r="AV17">
         <v>15.99</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>7869</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>202204</v>
@@ -3074,10 +2210,10 @@
         <v>8899801262</v>
       </c>
       <c r="G18" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H18" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I18">
         <v>3611052500</v>
@@ -3086,7 +2222,7 @@
         <v>86.16363636363636</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L18">
         <v>18581859</v>
@@ -3098,117 +2234,69 @@
         <v>39853</v>
       </c>
       <c r="O18">
-        <v>90.26000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="P18">
-        <v>9.74</v>
+        <v>16.2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>27.75</v>
       </c>
       <c r="R18">
-        <v>8.08</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="S18">
-        <v>30.73</v>
+        <v>0.05</v>
       </c>
       <c r="T18">
-        <v>2.22</v>
+        <v>0.14</v>
       </c>
       <c r="U18">
-        <v>19.9</v>
+        <v>16.57</v>
       </c>
       <c r="V18">
-        <v>29.33</v>
+        <v>22.38</v>
       </c>
       <c r="W18">
-        <v>9.74</v>
+        <v>4.21</v>
       </c>
       <c r="X18">
-        <v>17.67</v>
+        <v>3.53</v>
       </c>
       <c r="Y18">
-        <v>62.11</v>
+        <v>0.14</v>
       </c>
       <c r="Z18">
-        <v>14.61</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>5.61</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>34.84</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>22.11</v>
       </c>
       <c r="AE18">
-        <v>0.46</v>
+        <v>33.74</v>
       </c>
       <c r="AF18">
-        <v>16.2</v>
-      </c>
-      <c r="AG18">
-        <v>27.75</v>
-      </c>
-      <c r="AH18">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="AI18">
-        <v>0.05</v>
-      </c>
-      <c r="AJ18">
-        <v>0.14</v>
-      </c>
-      <c r="AK18">
-        <v>16.57</v>
-      </c>
-      <c r="AL18">
-        <v>22.38</v>
-      </c>
-      <c r="AM18">
-        <v>4.21</v>
-      </c>
-      <c r="AN18">
-        <v>3.53</v>
-      </c>
-      <c r="AO18">
-        <v>0.14</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>2.95</v>
-      </c>
-      <c r="AS18">
-        <v>34.84</v>
-      </c>
-      <c r="AT18">
-        <v>22.11</v>
-      </c>
-      <c r="AU18">
-        <v>33.74</v>
-      </c>
-      <c r="AV18">
         <v>6.22</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>7870</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D19">
         <v>202204</v>
@@ -3220,10 +2308,10 @@
         <v>4859101585</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I19">
         <v>3611052500</v>
@@ -3232,7 +2320,7 @@
         <v>44.54545454545455</v>
       </c>
       <c r="K19" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L19">
         <v>6142625</v>
@@ -3244,117 +2332,69 @@
         <v>37516</v>
       </c>
       <c r="O19">
-        <v>53.21</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>46.79</v>
+        <v>34.96</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="R19">
-        <v>17.23</v>
+        <v>7.94</v>
       </c>
       <c r="S19">
-        <v>12.31</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>15.87</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>2.67</v>
+        <v>31.69</v>
       </c>
       <c r="V19">
-        <v>5.14</v>
+        <v>13.37</v>
       </c>
       <c r="W19">
-        <v>46.79</v>
+        <v>9.31</v>
       </c>
       <c r="X19">
-        <v>2.62</v>
+        <v>0.71</v>
       </c>
       <c r="Y19">
-        <v>52.29</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>10.04</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>35.05</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>37.48</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>28.73</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>11.61</v>
       </c>
       <c r="AF19">
-        <v>34.96</v>
-      </c>
-      <c r="AG19">
-        <v>2.02</v>
-      </c>
-      <c r="AH19">
-        <v>7.94</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
-      </c>
-      <c r="AK19">
-        <v>31.69</v>
-      </c>
-      <c r="AL19">
-        <v>13.37</v>
-      </c>
-      <c r="AM19">
-        <v>9.31</v>
-      </c>
-      <c r="AN19">
-        <v>0.71</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>1.54</v>
-      </c>
-      <c r="AS19">
-        <v>37.48</v>
-      </c>
-      <c r="AT19">
-        <v>28.73</v>
-      </c>
-      <c r="AU19">
-        <v>11.61</v>
-      </c>
-      <c r="AV19">
         <v>20.64</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>7871</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D20">
         <v>202204</v>
@@ -3366,10 +2406,10 @@
         <v>7059401554</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H20" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I20">
         <v>3611052500</v>
@@ -3378,7 +2418,7 @@
         <v>92.03030303030303</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L20">
         <v>11466839</v>
@@ -3390,117 +2430,69 @@
         <v>16306</v>
       </c>
       <c r="O20">
-        <v>86.81999999999999</v>
+        <v>3.13</v>
       </c>
       <c r="P20">
-        <v>13.18</v>
+        <v>6.21</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>10.72</v>
       </c>
       <c r="R20">
-        <v>30.14</v>
+        <v>12.49</v>
       </c>
       <c r="S20">
-        <v>7.56</v>
+        <v>1.27</v>
       </c>
       <c r="T20">
-        <v>8.56</v>
+        <v>2.86</v>
       </c>
       <c r="U20">
-        <v>24.96</v>
+        <v>27.33</v>
       </c>
       <c r="V20">
-        <v>15.6</v>
+        <v>26.57</v>
       </c>
       <c r="W20">
-        <v>13.18</v>
+        <v>4.04</v>
       </c>
       <c r="X20">
-        <v>34.33</v>
+        <v>5.38</v>
       </c>
       <c r="Y20">
-        <v>45.26</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
-        <v>16.66</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>38.55</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>37.45</v>
       </c>
       <c r="AE20">
-        <v>3.13</v>
+        <v>7.84</v>
       </c>
       <c r="AF20">
-        <v>6.21</v>
-      </c>
-      <c r="AG20">
-        <v>10.72</v>
-      </c>
-      <c r="AH20">
-        <v>12.49</v>
-      </c>
-      <c r="AI20">
-        <v>1.27</v>
-      </c>
-      <c r="AJ20">
-        <v>2.86</v>
-      </c>
-      <c r="AK20">
-        <v>27.33</v>
-      </c>
-      <c r="AL20">
-        <v>26.57</v>
-      </c>
-      <c r="AM20">
-        <v>4.04</v>
-      </c>
-      <c r="AN20">
-        <v>5.38</v>
-      </c>
-      <c r="AO20">
-        <v>1.2</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>8.41</v>
-      </c>
-      <c r="AS20">
-        <v>38.55</v>
-      </c>
-      <c r="AT20">
-        <v>37.45</v>
-      </c>
-      <c r="AU20">
-        <v>7.84</v>
-      </c>
-      <c r="AV20">
         <v>6.54</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>7872</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <v>202204</v>
@@ -3512,10 +2504,10 @@
         <v>3933101185</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H21" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I21">
         <v>3611052500</v>
@@ -3524,7 +2516,7 @@
         <v>71.04848484848486</v>
       </c>
       <c r="K21" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L21">
         <v>15969662</v>
@@ -3536,117 +2528,69 @@
         <v>63302</v>
       </c>
       <c r="O21">
-        <v>91.27</v>
+        <v>0.27</v>
       </c>
       <c r="P21">
-        <v>8.73</v>
+        <v>0.37</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>35.03</v>
       </c>
       <c r="R21">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>56.93</v>
+        <v>0.86</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>2.5</v>
+        <v>30.36</v>
       </c>
       <c r="V21">
-        <v>12.83</v>
+        <v>23.58</v>
       </c>
       <c r="W21">
-        <v>8.73</v>
+        <v>4.47</v>
       </c>
       <c r="X21">
-        <v>5.71</v>
+        <v>5.06</v>
       </c>
       <c r="Y21">
-        <v>33.37</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>33.06</v>
+        <v>0</v>
       </c>
       <c r="AA21">
-        <v>13.36</v>
+        <v>0</v>
       </c>
       <c r="AB21">
-        <v>14.51</v>
+        <v>5.88</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>46.28</v>
       </c>
       <c r="AE21">
-        <v>0.27</v>
+        <v>37.01</v>
       </c>
       <c r="AF21">
-        <v>0.37</v>
-      </c>
-      <c r="AG21">
-        <v>35.03</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0.86</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
-      </c>
-      <c r="AK21">
-        <v>30.36</v>
-      </c>
-      <c r="AL21">
-        <v>23.58</v>
-      </c>
-      <c r="AM21">
-        <v>4.47</v>
-      </c>
-      <c r="AN21">
-        <v>5.06</v>
-      </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>5.88</v>
-      </c>
-      <c r="AS21">
-        <v>2.88</v>
-      </c>
-      <c r="AT21">
-        <v>46.28</v>
-      </c>
-      <c r="AU21">
-        <v>37.01</v>
-      </c>
-      <c r="AV21">
         <v>7.96</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>8168</v>
       </c>
       <c r="B22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D22">
         <v>202205</v>
@@ -3658,10 +2602,10 @@
         <v>5099006083</v>
       </c>
       <c r="G22" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="I22">
         <v>3611052500</v>
@@ -3670,7 +2614,7 @@
         <v>60.71515151515153</v>
       </c>
       <c r="K22" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="L22">
         <v>5650935</v>
@@ -3682,117 +2626,69 @@
         <v>7345</v>
       </c>
       <c r="O22">
-        <v>85.76000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="P22">
-        <v>14.24</v>
+        <v>15.36</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>14.97</v>
       </c>
       <c r="R22">
-        <v>26.33</v>
+        <v>0.48</v>
       </c>
       <c r="S22">
-        <v>13.95</v>
+        <v>0.47</v>
       </c>
       <c r="T22">
-        <v>17.86</v>
+        <v>0.67</v>
       </c>
       <c r="U22">
-        <v>12.96</v>
+        <v>24.55</v>
       </c>
       <c r="V22">
-        <v>14.65</v>
+        <v>35.15</v>
       </c>
       <c r="W22">
-        <v>14.24</v>
+        <v>6.45</v>
       </c>
       <c r="X22">
-        <v>35.72</v>
+        <v>0.87</v>
       </c>
       <c r="Y22">
-        <v>17.64</v>
+        <v>0.88</v>
       </c>
       <c r="Z22">
-        <v>30.03</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>16.61</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>21.75</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>18.21</v>
       </c>
       <c r="AE22">
-        <v>1.04</v>
+        <v>34.75</v>
       </c>
       <c r="AF22">
-        <v>15.36</v>
-      </c>
-      <c r="AG22">
-        <v>14.97</v>
-      </c>
-      <c r="AH22">
-        <v>0.48</v>
-      </c>
-      <c r="AI22">
-        <v>0.47</v>
-      </c>
-      <c r="AJ22">
-        <v>0.67</v>
-      </c>
-      <c r="AK22">
-        <v>24.55</v>
-      </c>
-      <c r="AL22">
-        <v>35.15</v>
-      </c>
-      <c r="AM22">
-        <v>6.45</v>
-      </c>
-      <c r="AN22">
-        <v>0.87</v>
-      </c>
-      <c r="AO22">
-        <v>0.88</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>3.85</v>
-      </c>
-      <c r="AS22">
-        <v>21.75</v>
-      </c>
-      <c r="AT22">
-        <v>18.21</v>
-      </c>
-      <c r="AU22">
-        <v>34.75</v>
-      </c>
-      <c r="AV22">
         <v>20.57</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>8169</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D23">
         <v>202205</v>
@@ -3804,10 +2700,10 @@
         <v>8899801262</v>
       </c>
       <c r="G23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="I23">
         <v>3611052500</v>
@@ -3816,7 +2712,7 @@
         <v>86.16363636363636</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L23">
         <v>19626358</v>
@@ -3828,117 +2724,69 @@
         <v>45992</v>
       </c>
       <c r="O23">
-        <v>94.72</v>
+        <v>5.3</v>
       </c>
       <c r="P23">
-        <v>5.28</v>
+        <v>4.39</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="R23">
-        <v>27.6</v>
+        <v>12.03</v>
       </c>
       <c r="S23">
-        <v>17.52</v>
+        <v>10.31</v>
       </c>
       <c r="T23">
-        <v>19.02</v>
+        <v>1.57</v>
       </c>
       <c r="U23">
-        <v>9.699999999999999</v>
+        <v>1.75</v>
       </c>
       <c r="V23">
-        <v>20.88</v>
+        <v>22.77</v>
       </c>
       <c r="W23">
-        <v>5.28</v>
+        <v>2.86</v>
       </c>
       <c r="X23">
-        <v>19.51</v>
+        <v>36.05</v>
       </c>
       <c r="Y23">
-        <v>55.14</v>
+        <v>0.48</v>
       </c>
       <c r="Z23">
-        <v>22.53</v>
+        <v>1.4</v>
       </c>
       <c r="AA23">
-        <v>2.82</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>13.44</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>26.34</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>26.94</v>
       </c>
       <c r="AE23">
-        <v>5.3</v>
+        <v>13.53</v>
       </c>
       <c r="AF23">
-        <v>4.39</v>
-      </c>
-      <c r="AG23">
-        <v>2.96</v>
-      </c>
-      <c r="AH23">
-        <v>12.03</v>
-      </c>
-      <c r="AI23">
-        <v>10.31</v>
-      </c>
-      <c r="AJ23">
-        <v>1.57</v>
-      </c>
-      <c r="AK23">
-        <v>1.75</v>
-      </c>
-      <c r="AL23">
-        <v>22.77</v>
-      </c>
-      <c r="AM23">
-        <v>2.86</v>
-      </c>
-      <c r="AN23">
-        <v>36.05</v>
-      </c>
-      <c r="AO23">
-        <v>0.48</v>
-      </c>
-      <c r="AP23">
-        <v>1.4</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>13.44</v>
-      </c>
-      <c r="AS23">
-        <v>26.34</v>
-      </c>
-      <c r="AT23">
-        <v>26.94</v>
-      </c>
-      <c r="AU23">
-        <v>13.53</v>
-      </c>
-      <c r="AV23">
         <v>17.87</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>8170</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D24">
         <v>202205</v>
@@ -3950,10 +2798,10 @@
         <v>4859101585</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I24">
         <v>3611052500</v>
@@ -3962,7 +2810,7 @@
         <v>44.54545454545455</v>
       </c>
       <c r="K24" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L24">
         <v>9510685</v>
@@ -3974,117 +2822,69 @@
         <v>70923</v>
       </c>
       <c r="O24">
-        <v>36.73</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>63.27</v>
+        <v>3.79</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="R24">
-        <v>7.36</v>
+        <v>1.13</v>
       </c>
       <c r="S24">
-        <v>2.74</v>
+        <v>1.27</v>
       </c>
       <c r="T24">
-        <v>23.73</v>
+        <v>1.6</v>
       </c>
       <c r="U24">
-        <v>0.17</v>
+        <v>25.81</v>
       </c>
       <c r="V24">
-        <v>2.73</v>
+        <v>7.51</v>
       </c>
       <c r="W24">
-        <v>63.27</v>
+        <v>56.36</v>
       </c>
       <c r="X24">
-        <v>2.61</v>
+        <v>1.64</v>
       </c>
       <c r="Y24">
-        <v>64.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>6.64</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>23.05</v>
+        <v>2.15</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>63.79</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>5.52</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>28.55</v>
       </c>
       <c r="AF24">
-        <v>3.79</v>
-      </c>
-      <c r="AG24">
-        <v>0.89</v>
-      </c>
-      <c r="AH24">
-        <v>1.13</v>
-      </c>
-      <c r="AI24">
-        <v>1.27</v>
-      </c>
-      <c r="AJ24">
-        <v>1.6</v>
-      </c>
-      <c r="AK24">
-        <v>25.81</v>
-      </c>
-      <c r="AL24">
-        <v>7.51</v>
-      </c>
-      <c r="AM24">
-        <v>56.36</v>
-      </c>
-      <c r="AN24">
-        <v>1.64</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>2.15</v>
-      </c>
-      <c r="AS24">
-        <v>63.79</v>
-      </c>
-      <c r="AT24">
-        <v>5.52</v>
-      </c>
-      <c r="AU24">
-        <v>28.55</v>
-      </c>
-      <c r="AV24">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>8171</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D25">
         <v>202205</v>
@@ -4096,10 +2896,10 @@
         <v>7059401554</v>
       </c>
       <c r="G25" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H25" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I25">
         <v>3611052500</v>
@@ -4108,7 +2908,7 @@
         <v>92.03030303030303</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="L25">
         <v>7825365</v>
@@ -4120,117 +2920,69 @@
         <v>19244</v>
       </c>
       <c r="O25">
-        <v>90.19</v>
+        <v>1.01</v>
       </c>
       <c r="P25">
-        <v>9.81</v>
+        <v>17.43</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>15.83</v>
       </c>
       <c r="R25">
-        <v>19.88</v>
+        <v>15.34</v>
       </c>
       <c r="S25">
-        <v>22.49</v>
+        <v>0.78</v>
       </c>
       <c r="T25">
-        <v>5.96</v>
+        <v>1.3</v>
       </c>
       <c r="U25">
-        <v>8.539999999999999</v>
+        <v>3.12</v>
       </c>
       <c r="V25">
-        <v>33.32</v>
+        <v>32.83</v>
       </c>
       <c r="W25">
-        <v>9.81</v>
+        <v>7.92</v>
       </c>
       <c r="X25">
-        <v>32.37</v>
+        <v>4.44</v>
       </c>
       <c r="Y25">
-        <v>49.73</v>
+        <v>0.58</v>
       </c>
       <c r="Z25">
-        <v>17.14</v>
+        <v>0.72</v>
       </c>
       <c r="AA25">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>31.18</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>31.32</v>
       </c>
       <c r="AE25">
-        <v>1.01</v>
+        <v>20.77</v>
       </c>
       <c r="AF25">
-        <v>17.43</v>
-      </c>
-      <c r="AG25">
-        <v>15.83</v>
-      </c>
-      <c r="AH25">
-        <v>15.34</v>
-      </c>
-      <c r="AI25">
-        <v>0.78</v>
-      </c>
-      <c r="AJ25">
-        <v>1.3</v>
-      </c>
-      <c r="AK25">
-        <v>3.12</v>
-      </c>
-      <c r="AL25">
-        <v>32.83</v>
-      </c>
-      <c r="AM25">
-        <v>7.92</v>
-      </c>
-      <c r="AN25">
-        <v>4.44</v>
-      </c>
-      <c r="AO25">
-        <v>0.58</v>
-      </c>
-      <c r="AP25">
-        <v>0.72</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AS25">
-        <v>31.18</v>
-      </c>
-      <c r="AT25">
-        <v>31.32</v>
-      </c>
-      <c r="AU25">
-        <v>20.77</v>
-      </c>
-      <c r="AV25">
         <v>6.12</v>
       </c>
     </row>
-    <row r="26" spans="1:48">
+    <row r="26" spans="1:32">
       <c r="A26" s="1">
         <v>8172</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C26" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D26">
         <v>202205</v>
@@ -4242,10 +2994,10 @@
         <v>3933101185</v>
       </c>
       <c r="G26" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H26" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="I26">
         <v>3611052500</v>
@@ -4254,7 +3006,7 @@
         <v>71.04848484848486</v>
       </c>
       <c r="K26" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="L26">
         <v>10628731</v>
@@ -4266,105 +3018,57 @@
         <v>82080</v>
       </c>
       <c r="O26">
-        <v>97.14</v>
+        <v>2.85</v>
       </c>
       <c r="P26">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>88.39</v>
       </c>
       <c r="R26">
-        <v>10.75</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>59.94</v>
+        <v>1.5</v>
       </c>
       <c r="T26">
         <v>0</v>
       </c>
       <c r="U26">
-        <v>16.24</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>10.22</v>
+        <v>6.46</v>
       </c>
       <c r="W26">
-        <v>2.86</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>2.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="Y26">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>56.59</v>
+        <v>1.5</v>
       </c>
       <c r="AA26">
-        <v>20.3</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>4.78</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>15.09</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>37.61</v>
       </c>
       <c r="AE26">
-        <v>2.85</v>
+        <v>17.61</v>
       </c>
       <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>88.39</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>1.5</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>6.46</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>1.5</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>4.78</v>
-      </c>
-      <c r="AS26">
-        <v>15.09</v>
-      </c>
-      <c r="AT26">
-        <v>37.61</v>
-      </c>
-      <c r="AU26">
-        <v>17.61</v>
-      </c>
-      <c r="AV26">
         <v>23.42</v>
       </c>
     </row>
